--- a/dev/workAutomation/media/result/급여지급현황.xlsx
+++ b/dev/workAutomation/media/result/급여지급현황.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,36 +519,50 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>황종덕</t>
+          <t>안성호</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>641120-1823741</t>
+          <t>780306-1114214</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3839167</v>
+        <v>1200000</v>
       </c>
       <c r="F2" t="n">
-        <v>2233333</v>
+        <v>1200000</v>
       </c>
       <c r="G2" t="n">
-        <v>2233333</v>
+        <v>1200000</v>
       </c>
       <c r="H2" t="n">
-        <v>2233333</v>
+        <v>1200000</v>
       </c>
       <c r="I2" t="n">
-        <v>2233333</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>1200000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1200000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -559,49 +573,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>최현영</t>
+          <t>안영호</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>911124-2842714</t>
+          <t>800223-1110218</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4320833</v>
+        <v>700000</v>
       </c>
       <c r="F3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="G3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="H3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="I3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="J3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="K3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="L3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="M3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="N3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="O3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
       <c r="P3" t="n">
-        <v>2541666</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="4">
@@ -613,202 +627,50 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>염승열</t>
+          <t>이성현</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>610112-1639814</t>
+          <t>760928-1095519</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2875000</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>허영빈</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>900130-1125016</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2925000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>전대복</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>651028-1330916</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1573770</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1745150</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1745150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>임창순</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>660116-1815012</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>3870967</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1333332</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>박용한</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>880302-1120815</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>2866667</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2666667</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2666667</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2666667</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+        <v>1600000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1600000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
